--- a/data/yzf_repayment_test.xlsx
+++ b/data/yzf_repayment_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B427E0D-43D1-194A-B877-1525ADFAEC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9853267-A14E-BD46-94AD-A3AE71AE976B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="460" windowWidth="20140" windowHeight="14540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="20140" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -326,84 +326,6 @@
 		"institution": "dumiao",
 		"businessType": null
 	}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "channel": "Pintec",
- "sourceCode": "dm_ares",
- "sourceProjectId": "27222489",
- "sourceUserId": "44695380",
- "transactionId": "JON20192913248184",
- "applyInfo": {
-  "applyTime": "2019-04-28 08:34:16",
-  "applyAmount": 73.14,
-  "applyTerm": 3,
-  "productCode": "FQ_DX_YZF",
-  "applySource": "api",
-  "financeChannelId": "zhtb",
-  "liveAddressProvince": null,
-  "liveAddressCity": null,
-  "liveAddressBorough": null,
-  "liveDetailAddress": "泽国镇牧屿泽牧路73号"
- },
- "personalInfo": {
-  "cardNum": "420101196405208625",
-  "custName": "俟玉汕",
-  "phone": "13666558439",
-  "sex": "M",
-  "age": 58,
-  "maritalStatus": null,
-  "cardPhoneSameProvince": null,
-  "threeVerifyResult": "Y",
-  "fourVerifyResult": "Y",
-  "creditAmt": 5000.00,
-  "creditAvailableAmt": null
- },
- "cardInfo": {
-  "bankCode": "0308",
-  "bankCardNo": "6214850291191788",
-  "bankPhone": "13666558439",
-  "bankNameSub": "招商银行"
- },
- "customExtra": {
-  "employeeFrom": null,
-  "monthIncome": null,
-  "creditCardGrade": null,
-  "phoneRealName": null,
-  "mobileCarrier": null,
-  "phoneNetAge": null,
-  "nationality": null,
-  "education": null,
-  "creditBankCard": null,
-  "debtUsage": null,
-  "repaymentAbility": null,
-  "annualIncome": null
- },
- "riskSuggestion": {
-  "hitBlacklistFlag": "N",
-  "hitExternalBlacklistFlag": "N",
-  "overdueFlag": "N",
-  "hisOverdueTimes": "D0",
-  "hisMaxOverdueDays": "M0",
-  "hisMaxOverdueAmt": "A0",
-  "appPlatformNum": "B1",
-  "custRecommendGrade": "RG4",
-  "secondSugStrategy": "A"
- },
- "loanInfo": {
-  "loanAmount": 73.14,
-  "assetInterestRate": 0.100000,
-  "assetInterestRatePeriod": "Y",
-  "userInterestRate": 0.01090000,
-  "userInterestRatePeriod": "M",
-  "loanTerm": 3,
-  "cycleInterval": null,
-  "nominalAnnualRate": null,
-  "repayMethod": "PI",
-  "extensionStatus": "N"
- }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +539,84 @@
   "businessType": null
  }],
  "feePlanList": []
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "channel": "Pintec",
+ "sourceCode": "dm_ares",
+ "sourceProjectId": "27222489",
+ "sourceUserId": "44695380",
+ "transactionId": "JON20192913248184",
+ "applyInfo": {
+  "applyTime": "2019-04-28 08:34:16",
+  "applyAmount": 975,
+  "applyTerm": 24,
+  "productCode": "FQ_DX_YZF",
+  "applySource": "api",
+  "financeChannelId": "zhtb",
+  "liveAddressProvince": null,
+  "liveAddressCity": null,
+  "liveAddressBorough": null,
+  "liveDetailAddress": "泽国镇牧屿泽牧路73号"
+ },
+ "personalInfo": {
+  "cardNum": "420101196405208625",
+  "custName": "俟玉汕",
+  "phone": "13666558439",
+  "sex": "M",
+  "age": 58,
+  "maritalStatus": null,
+  "cardPhoneSameProvince": null,
+  "threeVerifyResult": "Y",
+  "fourVerifyResult": "Y",
+  "creditAmt": 5000.00,
+  "creditAvailableAmt": null
+ },
+ "cardInfo": {
+  "bankCode": "0308",
+  "bankCardNo": "6214850291191788",
+  "bankPhone": "13666558439",
+  "bankNameSub": "招商银行"
+ },
+ "customExtra": {
+  "employeeFrom": null,
+  "monthIncome": null,
+  "creditCardGrade": null,
+  "phoneRealName": null,
+  "mobileCarrier": null,
+  "phoneNetAge": null,
+  "nationality": null,
+  "education": null,
+  "creditBankCard": null,
+  "debtUsage": null,
+  "repaymentAbility": null,
+  "annualIncome": null
+ },
+ "riskSuggestion": {
+  "hitBlacklistFlag": "N",
+  "hitExternalBlacklistFlag": "N",
+  "overdueFlag": "N",
+  "hisOverdueTimes": "D0",
+  "hisMaxOverdueDays": "M0",
+  "hisMaxOverdueAmt": "A0",
+  "appPlatformNum": "B1",
+  "custRecommendGrade": "RG4",
+  "secondSugStrategy": "A"
+ },
+ "loanInfo": {
+  "loanAmount": 975,
+  "assetInterestRate": 0.100000,
+  "assetInterestRatePeriod": "Y",
+  "userInterestRate": 0.01090000,
+  "userInterestRatePeriod": "M",
+  "loanTerm": 24,
+  "cycleInterval": null,
+  "nominalAnnualRate": null,
+  "repayMethod": "PI",
+  "extensionStatus": "N"
+ }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE41281-85F3-B34C-B839-AA7FB40065E8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
